--- a/test/performance.xlsx
+++ b/test/performance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>number of threadblocks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,24 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>performance impact from running kernels in parallel
-(each kernel has 10 threadblocks, each theadblock has 1 thread)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number of kernels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>concurrent?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,11 +51,6 @@
   </si>
   <si>
     <t>270-142=128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the maximum number of threadblocks we can assign to each kernel running in parallel is about 697000. This is strange because from  books and some online tutorials, the number should be 65535. But even I create much more than that, the program can still run. When the number reaches about 69700, a segment fault happens. The most weird thing is the segment fault does not happen after a specific number. Around 69700, it happens sometime, but other time it does not.
-Since I'm running only one kernel, I'm trying to find if all threads run concurrently. Another thing is I'm using maxThreadBlocks.cu to test this. I need to work more to find if it is affected by the specific program. And I need to try other way to find the maximum number.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,12 +85,25 @@
     <t>From the visual profile we can see that every 128 kernels are running concurrently</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>the maximum number of threadblocks we can assign to each kernel running in parallel is about 697000. This is strange because from  books and some online tutorials, the number should be 65535. But even I create much more than that, the program can still run. When the number reaches about 69700, a segment fault happens. The most weird thing is the segment fault does not happen after a specific number. Around 69700, it happens sometime, but other time it does not.
+Since I'm running only one kernel, I'm trying to find if all threads run concurrently. Another thing is I'm using maxThreadBlocks.cu to test this. I need to work more to find if it is affected by the specific program. And I need to try other way to find the maximum number.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>performance impact from running kernels in parallel
+(each kernel has 10 threadblocks, each theadblock has 1 thread)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +118,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,17 +147,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,7 +900,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$39:$A$47</c:f>
+              <c:f>Sheet1!$A$49:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -905,7 +936,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$B$47</c:f>
+              <c:f>Sheet1!$B$49:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1251,6 +1282,507 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="0"/>
+              <a:t>performance impact from running kernels in parallel</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.5388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5422000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7923999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1073000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6007999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4041999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.656000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.606000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2369-445B-A906-97C7843E06A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="887552735"/>
+        <c:axId val="887558559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="887552735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t># of kernels</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887558559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="887558559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>avg time /ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887552735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1331,6 +1863,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1848,6 +2420,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2399,13 +3487,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>780677</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>115048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>168838</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2420,6 +3508,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>231935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>653601</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2691,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="99" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2707,22 +3825,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2812,7 +3930,7 @@
         <v>14.472</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>900</v>
       </c>
@@ -2820,7 +3938,7 @@
         <v>16.082999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -2828,7 +3946,7 @@
         <v>16.259</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -2836,7 +3954,7 @@
         <v>161.47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100000</v>
       </c>
@@ -2844,7 +3962,7 @@
         <v>1466.69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1000000</v>
       </c>
@@ -2852,205 +3970,317 @@
         <v>14436.7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7.5388999999999999</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7.5422000000000002</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4">
+        <v>7.7923999999999998</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8.1073000000000004</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8.6007999999999996</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3">
+        <v>9.4041999999999994</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3">
+        <v>10.186</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3">
+        <v>11.305</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3">
+        <v>12.824999999999999</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>90</v>
+      </c>
+      <c r="B34" s="3">
+        <v>14.166</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>100</v>
+      </c>
+      <c r="B35" s="3">
+        <v>15.656000000000001</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>110</v>
+      </c>
+      <c r="B36" s="3">
+        <v>17.213000000000001</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>120</v>
+      </c>
+      <c r="B37" s="3">
+        <v>18.606000000000002</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1000</v>
+      </c>
+      <c r="B38">
+        <v>20.135000000000002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10000</v>
+      </c>
+      <c r="B39">
+        <v>18.594000000000001</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>1</v>
       </c>
-      <c r="B25">
-        <v>7.5213999999999999</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="B44">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>10</v>
       </c>
-      <c r="B26">
-        <v>7.5290999999999997</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B45">
+        <v>6.7839999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>100</v>
       </c>
-      <c r="B27">
-        <v>15.619</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="B46">
+        <v>259.70999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>1000</v>
       </c>
-      <c r="B28">
-        <v>20.135000000000002</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>4.2549999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>4.4480000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>10000</v>
-      </c>
-      <c r="B29">
-        <v>18.594000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B52">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>4.2549999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>6.7839999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>100</v>
-      </c>
-      <c r="B36">
-        <v>259.70999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1000</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>4.2549999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>4.4480000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>8</v>
-      </c>
-      <c r="B42">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>16</v>
-      </c>
-      <c r="B43">
+      <c r="B53">
         <v>7.7759999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>32</v>
       </c>
-      <c r="B44">
+      <c r="B54">
         <v>13.695</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>64</v>
       </c>
-      <c r="B45">
+      <c r="B55">
         <v>78.111999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>128</v>
       </c>
-      <c r="B46">
+      <c r="B56">
         <v>533.63</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>256</v>
       </c>
-      <c r="B47">
+      <c r="B57">
         <v>4032.7</v>
       </c>
     </row>
@@ -3059,7 +4289,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
